--- a/Excelion.xlsx
+++ b/Excelion.xlsx
@@ -9,11 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27180" windowHeight="6390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21645" windowHeight="10305"/>
   </bookViews>
   <sheets>
     <sheet name="Excelion" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Excelion!$A$1</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,17 +27,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KOR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ENG</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -68,7 +63,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -81,8 +76,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -149,6 +150,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -159,12 +182,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -178,6 +195,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -461,56 +484,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="40.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.625" style="5" customWidth="1"/>
-    <col min="2" max="3" width="40.625" style="7" customWidth="1"/>
-    <col min="4" max="11" width="10.125" style="7" customWidth="1"/>
-    <col min="12" max="26" width="9" style="1"/>
+    <col min="1" max="1" width="33.625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="3"/>
+    <col min="3" max="3" width="40.625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="4"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1"/>
   <dataConsolidate/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excelion.xlsx
+++ b/Excelion.xlsx
@@ -178,30 +178,33 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -490,17 +493,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="40.625" style="3"/>
-    <col min="3" max="3" width="40.625" style="5"/>
+    <col min="1" max="1" width="33.625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="6"/>
+    <col min="3" max="3" width="40.625" style="7"/>
+    <col min="4" max="16384" width="40.625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:3" s="4" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="4"/>
+      <c r="C1" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A1"/>
